--- a/xlsxPCES/examples/flows-meta.xlsx
+++ b/xlsxPCES/examples/flows-meta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicol/Dropbox/github-repos/pcesapps/flows/xlsx/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicol/Dropbox/github-repos/pcesbld/xlsxPCES/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C14A21-68D5-8142-991F-3DB30A11A133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F9B0F7-07D4-6B4E-B7CC-85184B4B694D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="760" windowWidth="34200" windowHeight="16920" activeTab="2" xr2:uid="{7E753834-245C-A346-8630-DEF93455D7FF}"/>
+    <workbookView xWindow="36640" yWindow="3320" windowWidth="34200" windowHeight="16920" xr2:uid="{7E753834-245C-A346-8630-DEF93455D7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="topo" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="191">
   <si>
     <t>netscale</t>
   </si>
@@ -599,6 +599,18 @@
   </si>
   <si>
     <t>checkSrc</t>
+  </si>
+  <si>
+    <t>str($outboundClient)</t>
+  </si>
+  <si>
+    <t>str($checkSrc)</t>
+  </si>
+  <si>
+    <t>$outboundClient,topo</t>
+  </si>
+  <si>
+    <t>$checkSrc,topo</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95325CDA-052A-9A47-A8FD-348C19C2091E}">
   <dimension ref="A2:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,7 +1614,7 @@
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1739,7 +1751,7 @@
         <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1774,7 +1786,7 @@
         <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2786,7 +2798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E788907-EF7B-7245-8B51-85EEFFE3B34D}">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3064,7 +3076,7 @@
   <dimension ref="A3:D17"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3495,10 +3507,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E5D7B3-B8B2-494B-8744-E4EF039717CC}">
-  <dimension ref="A2:D19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3506,15 +3518,17 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>133</v>
       </c>
@@ -3527,8 +3541,14 @@
       <c r="D3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>132</v>
       </c>
@@ -3541,8 +3561,14 @@
       <c r="D4">
         <v>625</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>152</v>
       </c>
@@ -3555,8 +3581,14 @@
       <c r="D5">
         <v>625</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>158</v>
       </c>
@@ -3569,8 +3601,14 @@
       <c r="D6">
         <v>625</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>153</v>
       </c>
@@ -3583,8 +3621,14 @@
       <c r="D7">
         <v>625</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>154</v>
       </c>
@@ -3597,8 +3641,14 @@
       <c r="D8">
         <v>625</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>155</v>
       </c>
@@ -3611,8 +3661,14 @@
       <c r="D9">
         <v>625</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>156</v>
       </c>
@@ -3625,8 +3681,14 @@
       <c r="D10">
         <v>625</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>178</v>
       </c>
@@ -3639,8 +3701,14 @@
       <c r="D11">
         <v>625</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>179</v>
       </c>
@@ -3653,8 +3721,14 @@
       <c r="D12">
         <v>625</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>180</v>
       </c>
@@ -3667,8 +3741,14 @@
       <c r="D13">
         <v>625</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>168</v>
       </c>
@@ -3681,8 +3761,14 @@
       <c r="D14">
         <v>625</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>169</v>
       </c>
@@ -3695,8 +3781,14 @@
       <c r="D15">
         <v>625</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>170</v>
       </c>
@@ -3709,8 +3801,14 @@
       <c r="D16">
         <v>625</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>171</v>
       </c>
@@ -3723,8 +3821,14 @@
       <c r="D17">
         <v>625</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>172</v>
       </c>
@@ -3737,8 +3841,14 @@
       <c r="D18">
         <v>625</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>173</v>
       </c>
@@ -3750,6 +3860,12 @@
       </c>
       <c r="D19">
         <v>625</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
